--- a/lab 20 pitanja za usmeni/pitanja_rm.xlsx
+++ b/lab 20 pitanja za usmeni/pitanja_rm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\RacunarskeMreze-ComputerNetworks-\lab 20 pitanja za usmeni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC899A17-65B8-4536-9043-B10D4440DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005321B-A5EC-46CD-A51D-7ECD9700AC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F168169-9DED-4844-B026-9388C6D5AA13}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>objasniti komunikaciju</t>
   </si>
   <si>
-    <t>sistemi zastitie</t>
-  </si>
-  <si>
     <t>uspostavljanje tcp konekcije</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>generički kablovski sistemi nacrtati i sve objasniti</t>
+  </si>
+  <si>
+    <t>sistemi zaštite</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3"/>
       <c r="I2" s="7"/>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="I3" s="7"/>
@@ -616,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3"/>
       <c r="I4" s="7"/>
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3"/>
       <c r="I5" s="7"/>
@@ -636,7 +636,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -647,7 +647,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3"/>
       <c r="I7" s="7"/>
@@ -657,7 +657,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
@@ -668,7 +668,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3"/>
       <c r="I9" s="7"/>
@@ -678,7 +678,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
@@ -689,7 +689,7 @@
         <v>142</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3"/>
       <c r="I11" s="7"/>
@@ -699,7 +699,7 @@
         <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -708,7 +708,7 @@
         <v>169</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -717,7 +717,7 @@
         <v>186</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
@@ -727,7 +727,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -736,7 +736,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
@@ -746,7 +746,7 @@
         <v>210</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
@@ -757,7 +757,7 @@
         <v>224</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -772,10 +772,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>237</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -817,29 +817,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>

--- a/lab 20 pitanja za usmeni/pitanja_rm.xlsx
+++ b/lab 20 pitanja za usmeni/pitanja_rm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik.DESKTOP-JVOQTMK\Documents\GitHub\RacunarskeMreze-ComputerNetworks-\lab 20 pitanja za usmeni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005321B-A5EC-46CD-A51D-7ECD9700AC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB483B1-AA68-40F2-A1AC-D5DF5EE7DD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F168169-9DED-4844-B026-9388C6D5AA13}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F168169-9DED-4844-B026-9388C6D5AA13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">strana </t>
   </si>
@@ -116,13 +116,16 @@
   </si>
   <si>
     <t>sistemi zaštite</t>
+  </si>
+  <si>
+    <t>Funkcije sloja veze podataka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +136,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,11 +166,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -222,13 +213,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -237,8 +227,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,10 +242,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,6 +258,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0FF5D5-4176-BCA6-B3DC-84DAAA84B705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6236970" y="201930"/>
+          <a:ext cx="4655820" cy="10054590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476517</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>113805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BFAD88-700B-A87D-8ADA-EF039EF346D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11183760" y="201435"/>
+          <a:ext cx="4647057" cy="10046970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,17 +662,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4DD337-C262-4EBF-8E7C-6F1F1935FEDF}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="73.44140625" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="0.109375" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,8 +691,7 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -608,8 +700,7 @@
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -618,8 +709,7 @@
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -628,8 +718,7 @@
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -638,9 +727,7 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -649,8 +736,7 @@
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -659,9 +745,8 @@
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -670,8 +755,7 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -680,9 +764,7 @@
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -691,8 +773,7 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -701,7 +782,6 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -710,7 +790,6 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -719,8 +798,6 @@
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -729,7 +806,6 @@
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -738,8 +814,6 @@
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -748,9 +822,7 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -759,7 +831,6 @@
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -768,7 +839,6 @@
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -782,14 +852,18 @@
       <c r="A21" s="2">
         <v>237</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -798,6 +872,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -816,34 +891,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
